--- a/Code/Results/Cases/Case_3_118/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_118/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.07729893106954</v>
+        <v>15.7955320345033</v>
       </c>
       <c r="C2">
-        <v>6.989514428310399</v>
+        <v>8.022092564121458</v>
       </c>
       <c r="D2">
-        <v>3.456802617360458</v>
+        <v>6.662002333786979</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>35.61058764181092</v>
+        <v>47.8566045943583</v>
       </c>
       <c r="G2">
-        <v>47.80912397187599</v>
+        <v>59.4799069308972</v>
       </c>
       <c r="H2">
-        <v>15.15773160386876</v>
+        <v>21.97631008259555</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.910474631026096</v>
+        <v>11.31834924706633</v>
       </c>
       <c r="K2">
-        <v>9.995064734954076</v>
+        <v>11.84210154337098</v>
       </c>
       <c r="L2">
-        <v>6.419475856964701</v>
+        <v>11.24914021275858</v>
       </c>
       <c r="M2">
-        <v>10.08434506331523</v>
+        <v>16.58992597257922</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.36901772580733</v>
+        <v>15.69532780716667</v>
       </c>
       <c r="C3">
-        <v>6.89622008256749</v>
+        <v>7.986076250532534</v>
       </c>
       <c r="D3">
-        <v>3.38843130707977</v>
+        <v>6.667935129414228</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>35.16192004313798</v>
+        <v>47.8562781269129</v>
       </c>
       <c r="G3">
-        <v>47.03346734641651</v>
+        <v>59.41898503090024</v>
       </c>
       <c r="H3">
-        <v>15.10348984995014</v>
+        <v>22.00127544277441</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.951124233990506</v>
+        <v>11.33491793399058</v>
       </c>
       <c r="K3">
-        <v>9.350130860012511</v>
+        <v>11.77472613583916</v>
       </c>
       <c r="L3">
-        <v>6.375313290831729</v>
+        <v>11.26446880630972</v>
       </c>
       <c r="M3">
-        <v>9.857938987557073</v>
+        <v>16.59581437527903</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.92035220943629</v>
+        <v>15.63734087763142</v>
       </c>
       <c r="C4">
-        <v>6.837884422845003</v>
+        <v>7.963230869285402</v>
       </c>
       <c r="D4">
-        <v>3.347079594412049</v>
+        <v>6.672414625158525</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>34.90407835607618</v>
+        <v>47.86378877902627</v>
       </c>
       <c r="G4">
-        <v>46.58132166095746</v>
+        <v>59.39228198427666</v>
       </c>
       <c r="H4">
-        <v>15.07724038341572</v>
+        <v>22.01940042675438</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.977295207977615</v>
+        <v>11.34573099041471</v>
       </c>
       <c r="K4">
-        <v>8.932534340350351</v>
+        <v>11.73601482444318</v>
       </c>
       <c r="L4">
-        <v>6.350573856822159</v>
+        <v>11.2751652028886</v>
       </c>
       <c r="M4">
-        <v>9.721406251037379</v>
+        <v>16.60201966656588</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.73426519812893</v>
+        <v>15.61462336460651</v>
       </c>
       <c r="C5">
-        <v>6.813846177435735</v>
+        <v>7.953738158173077</v>
       </c>
       <c r="D5">
-        <v>3.33040658445533</v>
+        <v>6.674451064395785</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>34.80339865446814</v>
+        <v>47.86878967890445</v>
       </c>
       <c r="G5">
-        <v>46.40311672516788</v>
+        <v>59.38409695043197</v>
       </c>
       <c r="H5">
-        <v>15.06826863038523</v>
+        <v>22.0274895201192</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.98826564820602</v>
+        <v>11.35029867719129</v>
       </c>
       <c r="K5">
-        <v>8.756905871691762</v>
+        <v>11.72092275956275</v>
       </c>
       <c r="L5">
-        <v>6.341087206954846</v>
+        <v>11.2798475924237</v>
       </c>
       <c r="M5">
-        <v>9.666453447289349</v>
+        <v>16.60520104647602</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.7031762122221</v>
+        <v>15.61090689522435</v>
       </c>
       <c r="C6">
-        <v>6.809838555855197</v>
+        <v>7.952150870651326</v>
       </c>
       <c r="D6">
-        <v>3.327649395206029</v>
+        <v>6.674801975090467</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>34.78694475935485</v>
+        <v>47.86973728173039</v>
       </c>
       <c r="G6">
-        <v>46.37389053523508</v>
+        <v>59.38290082461742</v>
       </c>
       <c r="H6">
-        <v>15.06688163493112</v>
+        <v>22.0288751635485</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.990105760436139</v>
+        <v>11.35106689045696</v>
       </c>
       <c r="K6">
-        <v>8.727412949571875</v>
+        <v>11.71845840583917</v>
       </c>
       <c r="L6">
-        <v>6.339547792005686</v>
+        <v>11.28064465381557</v>
       </c>
       <c r="M6">
-        <v>9.657371774126112</v>
+        <v>16.60576877063036</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.91785543099695</v>
+        <v>15.63703077714733</v>
       </c>
       <c r="C7">
-        <v>6.837561312848862</v>
+        <v>7.963103587237502</v>
       </c>
       <c r="D7">
-        <v>3.346853988319736</v>
+        <v>6.672441234137455</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>34.90270283094846</v>
+        <v>47.86384836592615</v>
       </c>
       <c r="G7">
-        <v>46.57889386718208</v>
+        <v>59.39216067372358</v>
       </c>
       <c r="H7">
-        <v>15.07711246709464</v>
+        <v>22.01950667284901</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.977441920888131</v>
+        <v>11.34579193830558</v>
       </c>
       <c r="K7">
-        <v>8.930187862753924</v>
+        <v>11.73580850283243</v>
       </c>
       <c r="L7">
-        <v>6.350443512013005</v>
+        <v>11.27522704065506</v>
       </c>
       <c r="M7">
-        <v>9.720662281691913</v>
+        <v>16.60205992734927</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.83605782002048</v>
+        <v>15.76026122130696</v>
       </c>
       <c r="C8">
-        <v>6.95756393463898</v>
+        <v>8.009826398524252</v>
       </c>
       <c r="D8">
-        <v>3.433109689005335</v>
+        <v>6.66387466755842</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>35.45220160090679</v>
+        <v>47.85489253491223</v>
       </c>
       <c r="G8">
-        <v>47.53666801758763</v>
+        <v>59.45668323730181</v>
       </c>
       <c r="H8">
-        <v>15.13753531250985</v>
+        <v>21.98433776122735</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.924239546818472</v>
+        <v>11.32392957229924</v>
       </c>
       <c r="K8">
-        <v>9.777160371701838</v>
+        <v>11.81832817874112</v>
       </c>
       <c r="L8">
-        <v>6.403753878039577</v>
+        <v>11.25415920555603</v>
       </c>
       <c r="M8">
-        <v>10.0058017883821</v>
+        <v>16.59141970700529</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.5200377459609</v>
+        <v>16.02892729691075</v>
       </c>
       <c r="C9">
-        <v>7.184651080152157</v>
+        <v>8.095613582994433</v>
       </c>
       <c r="D9">
-        <v>3.606385816754407</v>
+        <v>6.653687556432812</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>36.67140118623558</v>
+        <v>47.89843545158493</v>
       </c>
       <c r="G9">
-        <v>49.60642114356116</v>
+        <v>59.66784185975064</v>
       </c>
       <c r="H9">
-        <v>15.31420096420043</v>
+        <v>21.93756065187333</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.829490984853683</v>
+        <v>11.28611650823477</v>
       </c>
       <c r="K9">
-        <v>11.26796391802222</v>
+        <v>12.00053400592429</v>
       </c>
       <c r="L9">
-        <v>6.527253916301738</v>
+        <v>11.22301535773597</v>
       </c>
       <c r="M9">
-        <v>10.58202799583506</v>
+        <v>16.59103310396462</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.67892943611764</v>
+        <v>16.24126468528061</v>
       </c>
       <c r="C10">
-        <v>7.346718495783401</v>
+        <v>8.155041589625771</v>
       </c>
       <c r="D10">
-        <v>3.735117560080988</v>
+        <v>6.650196310127078</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>37.65552880670371</v>
+        <v>47.96753498684605</v>
       </c>
       <c r="G10">
-        <v>51.24400683005091</v>
+        <v>59.87408262836163</v>
       </c>
       <c r="H10">
-        <v>15.48250189524523</v>
+        <v>21.91672183380156</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.765673549818087</v>
+        <v>11.26139485676141</v>
       </c>
       <c r="K10">
-        <v>12.26178137784355</v>
+        <v>12.14582654407075</v>
       </c>
       <c r="L10">
-        <v>6.629668729482979</v>
+        <v>11.20630327981769</v>
       </c>
       <c r="M10">
-        <v>11.01248156243262</v>
+        <v>16.60313026602616</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.18822136341247</v>
+        <v>16.34076269754962</v>
       </c>
       <c r="C11">
-        <v>7.419490964345159</v>
+        <v>8.181286685420872</v>
       </c>
       <c r="D11">
-        <v>3.793781349845496</v>
+        <v>6.649466543137378</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>38.12282668773271</v>
+        <v>48.00698131750543</v>
       </c>
       <c r="G11">
-        <v>52.01442159449342</v>
+        <v>59.97886330716616</v>
       </c>
       <c r="H11">
-        <v>15.56809052129081</v>
+        <v>21.91017763395053</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.737890877147702</v>
+        <v>11.25080752455144</v>
       </c>
       <c r="K11">
-        <v>12.69244095553978</v>
+        <v>12.21417524285782</v>
       </c>
       <c r="L11">
-        <v>6.678817463804755</v>
+        <v>11.20003314586295</v>
       </c>
       <c r="M11">
-        <v>11.20922740393957</v>
+        <v>16.61129591645861</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.37846122803636</v>
+        <v>16.37882740585166</v>
       </c>
       <c r="C12">
-        <v>7.446919356373416</v>
+        <v>8.191110765690585</v>
       </c>
       <c r="D12">
-        <v>3.815994971363159</v>
+        <v>6.649312852264446</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>38.30263287912747</v>
+        <v>48.02306528916461</v>
       </c>
       <c r="G12">
-        <v>52.30982779942362</v>
+        <v>60.02010219300291</v>
       </c>
       <c r="H12">
-        <v>15.60185429579453</v>
+        <v>21.9081212631373</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.727549286099572</v>
+        <v>11.24689269912655</v>
       </c>
       <c r="K12">
-        <v>12.85249149483962</v>
+        <v>12.24036102560587</v>
       </c>
       <c r="L12">
-        <v>6.697798310505361</v>
+        <v>11.19784975301824</v>
       </c>
       <c r="M12">
-        <v>11.28381855769412</v>
+        <v>16.61476831072983</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.33760658032262</v>
+        <v>16.37061277465513</v>
       </c>
       <c r="C13">
-        <v>7.441017750272247</v>
+        <v>8.18900007513164</v>
       </c>
       <c r="D13">
-        <v>3.811211154595474</v>
+        <v>6.649340510023623</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>38.26378108252031</v>
+        <v>48.0195504268462</v>
       </c>
       <c r="G13">
-        <v>52.24604349922709</v>
+        <v>60.01115151175417</v>
       </c>
       <c r="H13">
-        <v>15.59452158496624</v>
+        <v>21.90854538749745</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.729768572149903</v>
+        <v>11.24773163532371</v>
       </c>
       <c r="K13">
-        <v>12.81815568252148</v>
+        <v>12.23470827810757</v>
       </c>
       <c r="L13">
-        <v>6.693693999893336</v>
+        <v>11.19831150225865</v>
       </c>
       <c r="M13">
-        <v>11.26775078244015</v>
+        <v>16.6140036015343</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.20392515647584</v>
+        <v>16.34388672662405</v>
       </c>
       <c r="C14">
-        <v>7.421750046985405</v>
+        <v>8.182097215689016</v>
       </c>
       <c r="D14">
-        <v>3.795608984890949</v>
+        <v>6.649451445294857</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>38.13756213026981</v>
+        <v>48.00828161358248</v>
       </c>
       <c r="G14">
-        <v>52.03865128226172</v>
+        <v>59.98222487053614</v>
       </c>
       <c r="H14">
-        <v>15.57084084604279</v>
+        <v>21.91000000445584</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.737036480571426</v>
+        <v>11.25048356022768</v>
       </c>
       <c r="K14">
-        <v>12.70566884364027</v>
+        <v>12.21632359763591</v>
       </c>
       <c r="L14">
-        <v>6.680371620769007</v>
+        <v>11.19984969306984</v>
       </c>
       <c r="M14">
-        <v>11.21536254600905</v>
+        <v>16.61157398773315</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.12169954311137</v>
+        <v>16.32756572346316</v>
       </c>
       <c r="C15">
-        <v>7.409931495974642</v>
+        <v>8.177854094087559</v>
       </c>
       <c r="D15">
-        <v>3.786051619950263</v>
+        <v>6.649535345957782</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>38.06062159046547</v>
+        <v>48.00152826488764</v>
       </c>
       <c r="G15">
-        <v>51.91209543242947</v>
+        <v>59.96470923161794</v>
       </c>
       <c r="H15">
-        <v>15.55651359846569</v>
+        <v>21.91094591480573</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.741511599235301</v>
+        <v>11.2521814728355</v>
       </c>
       <c r="K15">
-        <v>12.63637429306314</v>
+        <v>12.20510137065031</v>
       </c>
       <c r="L15">
-        <v>6.672259410184925</v>
+        <v>11.20081673083213</v>
       </c>
       <c r="M15">
-        <v>11.18328340628826</v>
+        <v>16.61013521557953</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.64528159301975</v>
+        <v>16.23481809417508</v>
       </c>
       <c r="C16">
-        <v>7.341944120315002</v>
+        <v>8.153310456042389</v>
       </c>
       <c r="D16">
-        <v>3.731284421712072</v>
+        <v>6.650261209494386</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>37.62538695042514</v>
+        <v>47.96511784251356</v>
       </c>
       <c r="G16">
-        <v>51.19417103325414</v>
+        <v>59.86745424380067</v>
       </c>
       <c r="H16">
-        <v>15.47709481023264</v>
+        <v>21.91720855538331</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.767514294638846</v>
+        <v>11.26209998809457</v>
       </c>
       <c r="K16">
-        <v>12.23320973938311</v>
+        <v>12.14140341378894</v>
       </c>
       <c r="L16">
-        <v>6.626508351106178</v>
+        <v>11.20673980522039</v>
       </c>
       <c r="M16">
-        <v>10.99963841187393</v>
+        <v>16.60264997917621</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.34839242421188</v>
+        <v>16.17864273491075</v>
       </c>
       <c r="C17">
-        <v>7.29999722775619</v>
+        <v>8.138050994948868</v>
       </c>
       <c r="D17">
-        <v>3.697701104775434</v>
+        <v>6.650925818169365</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>37.3634283180926</v>
+        <v>47.94482966138249</v>
       </c>
       <c r="G17">
-        <v>50.76027059605034</v>
+        <v>59.81058834436656</v>
       </c>
       <c r="H17">
-        <v>15.43072489190335</v>
+        <v>21.92180212277261</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.783785495591989</v>
+        <v>11.26835312836358</v>
       </c>
       <c r="K17">
-        <v>11.98042674274474</v>
+        <v>12.10288971991332</v>
       </c>
       <c r="L17">
-        <v>6.599097972606023</v>
+        <v>11.21071422308387</v>
       </c>
       <c r="M17">
-        <v>10.88718185246774</v>
+        <v>16.59873817463219</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.17594653647133</v>
+        <v>16.14660743946686</v>
       </c>
       <c r="C18">
-        <v>7.275780220893223</v>
+        <v>8.129199945581785</v>
       </c>
       <c r="D18">
-        <v>3.678395427838717</v>
+        <v>6.651388930954188</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>37.21460077263149</v>
+        <v>47.93391501526251</v>
       </c>
       <c r="G18">
-        <v>50.51309899762886</v>
+        <v>59.77891329201888</v>
       </c>
       <c r="H18">
-        <v>15.40490050643399</v>
+        <v>21.92472055051659</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.793261763911007</v>
+        <v>11.27201178712598</v>
       </c>
       <c r="K18">
-        <v>11.83301192418068</v>
+        <v>12.0809511231375</v>
       </c>
       <c r="L18">
-        <v>6.58357310626908</v>
+        <v>11.2131256412965</v>
       </c>
       <c r="M18">
-        <v>10.82258978637261</v>
+        <v>16.59673899532392</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.1172719888481</v>
+        <v>16.13580904483048</v>
       </c>
       <c r="C19">
-        <v>7.267565037780392</v>
+        <v>8.126190414480558</v>
       </c>
       <c r="D19">
-        <v>3.671861181281086</v>
+        <v>6.651559641920482</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>37.16452619852667</v>
+        <v>47.93034926319576</v>
       </c>
       <c r="G19">
-        <v>50.42982257983659</v>
+        <v>59.76836647369801</v>
       </c>
       <c r="H19">
-        <v>15.39630052292347</v>
+        <v>21.92575614842212</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.796490460235052</v>
+        <v>11.27326120842351</v>
       </c>
       <c r="K19">
-        <v>11.78275125690132</v>
+        <v>12.07356037150634</v>
       </c>
       <c r="L19">
-        <v>6.578357986895816</v>
+        <v>11.21396366826406</v>
       </c>
       <c r="M19">
-        <v>10.80073697367107</v>
+        <v>16.59610525732692</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.3801713728404</v>
+        <v>16.18459442731393</v>
       </c>
       <c r="C20">
-        <v>7.304471835117223</v>
+        <v>8.139683077827833</v>
       </c>
       <c r="D20">
-        <v>3.701275133692504</v>
+        <v>6.650846707608893</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>37.39112319581493</v>
+        <v>47.94691131534415</v>
       </c>
       <c r="G20">
-        <v>50.80621201865216</v>
+        <v>59.8165350410389</v>
       </c>
       <c r="H20">
-        <v>15.43557305918482</v>
+        <v>21.92128453272484</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.782041240367516</v>
+        <v>11.2676810548242</v>
       </c>
       <c r="K20">
-        <v>12.0075447060766</v>
+        <v>12.10696762327972</v>
       </c>
       <c r="L20">
-        <v>6.601990918130952</v>
+        <v>11.2102781614543</v>
       </c>
       <c r="M20">
-        <v>10.89914408558335</v>
+        <v>16.59912865578531</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.24326192795945</v>
+        <v>16.35172656028801</v>
       </c>
       <c r="C21">
-        <v>7.427412865741323</v>
+        <v>8.184127863938365</v>
       </c>
       <c r="D21">
-        <v>3.800191868432722</v>
+        <v>6.649415538479905</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>38.17455806621829</v>
+        <v>48.01156047107625</v>
       </c>
       <c r="G21">
-        <v>52.0994677897613</v>
+        <v>59.99067910034349</v>
       </c>
       <c r="H21">
-        <v>15.57775928080009</v>
+        <v>21.909561304636</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.734896861440257</v>
+        <v>11.2496726948311</v>
       </c>
       <c r="K21">
-        <v>12.73879078151588</v>
+        <v>12.22171555028414</v>
       </c>
       <c r="L21">
-        <v>6.684274693462477</v>
+        <v>11.19939271124488</v>
       </c>
       <c r="M21">
-        <v>11.23074819554572</v>
+        <v>16.61227732669927</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.80438885414432</v>
+        <v>16.4631979952921</v>
       </c>
       <c r="C22">
-        <v>7.507015255737238</v>
+        <v>8.212508064172559</v>
       </c>
       <c r="D22">
-        <v>3.864827164533648</v>
+        <v>6.649194732514887</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>38.70321173186838</v>
+        <v>48.06049188377586</v>
       </c>
       <c r="G22">
-        <v>52.96607031221988</v>
+        <v>60.1135809919849</v>
       </c>
       <c r="H22">
-        <v>15.67860053729242</v>
+        <v>21.90435768680164</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.705129134362865</v>
+        <v>11.23845307709899</v>
       </c>
       <c r="K22">
-        <v>13.19906310524057</v>
+        <v>12.29846978455265</v>
       </c>
       <c r="L22">
-        <v>6.740205143624187</v>
+        <v>11.19339126117848</v>
       </c>
       <c r="M22">
-        <v>11.44796532718862</v>
+        <v>16.62308569495506</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.50056979249231</v>
+        <v>16.40350884259689</v>
       </c>
       <c r="C23">
-        <v>7.464595163731389</v>
+        <v>8.197422348466802</v>
       </c>
       <c r="D23">
-        <v>3.830336062965409</v>
+        <v>6.649247467452936</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>38.4195259625048</v>
+        <v>48.033767199415</v>
       </c>
       <c r="G23">
-        <v>52.50158659318409</v>
+        <v>60.04715986560215</v>
       </c>
       <c r="H23">
-        <v>15.62403688738745</v>
+        <v>21.90691017469458</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.720921319327543</v>
+        <v>11.24439099792965</v>
       </c>
       <c r="K23">
-        <v>12.95500296427045</v>
+        <v>12.25735049662852</v>
       </c>
       <c r="L23">
-        <v>6.710156524858224</v>
+        <v>11.19649273347317</v>
       </c>
       <c r="M23">
-        <v>11.33200080098532</v>
+        <v>16.61711532442342</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.36580958961089</v>
+        <v>16.18190285289037</v>
       </c>
       <c r="C24">
-        <v>7.302449180866826</v>
+        <v>8.138945456632426</v>
       </c>
       <c r="D24">
-        <v>3.699659308325521</v>
+        <v>6.650882221079536</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>37.3785968120767</v>
+        <v>47.94596786505968</v>
       </c>
       <c r="G24">
-        <v>50.78543478890455</v>
+        <v>59.81384336748629</v>
       </c>
       <c r="H24">
-        <v>15.43337860824999</v>
+        <v>21.92151767063532</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.782829438936981</v>
+        <v>11.26798470099293</v>
       </c>
       <c r="K24">
-        <v>11.9952911776688</v>
+        <v>12.10512336790934</v>
       </c>
       <c r="L24">
-        <v>6.600682289542886</v>
+        <v>11.21047491092417</v>
       </c>
       <c r="M24">
-        <v>10.89373576733326</v>
+        <v>16.59895134104609</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.07783143100507</v>
+        <v>15.95350645909874</v>
       </c>
       <c r="C25">
-        <v>7.124078586548732</v>
+        <v>8.073035039865232</v>
       </c>
       <c r="D25">
-        <v>3.559184317128453</v>
+        <v>6.655739341957233</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>36.326188172229</v>
+        <v>47.88012570473358</v>
       </c>
       <c r="G25">
-        <v>49.02596128426562</v>
+        <v>59.60170123836158</v>
       </c>
       <c r="H25">
-        <v>15.2598674279506</v>
+        <v>21.94783905982118</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.854102302126458</v>
+        <v>11.29580688850886</v>
       </c>
       <c r="K25">
-        <v>10.88266250871914</v>
+        <v>11.94916020976845</v>
       </c>
       <c r="L25">
-        <v>6.491800258617875</v>
+        <v>11.2303548763254</v>
       </c>
       <c r="M25">
-        <v>10.42467024936862</v>
+        <v>16.58895511585525</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_118/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_118/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.7955320345033</v>
+        <v>13.0772989310696</v>
       </c>
       <c r="C2">
-        <v>8.022092564121458</v>
+        <v>6.989514428310538</v>
       </c>
       <c r="D2">
-        <v>6.662002333786979</v>
+        <v>3.456802617360474</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>47.8566045943583</v>
+        <v>35.61058764181112</v>
       </c>
       <c r="G2">
-        <v>59.4799069308972</v>
+        <v>47.80912397187618</v>
       </c>
       <c r="H2">
-        <v>21.97631008259555</v>
+        <v>15.15773160386891</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>11.31834924706633</v>
+        <v>6.910474631026125</v>
       </c>
       <c r="K2">
-        <v>11.84210154337098</v>
+        <v>9.995064734953992</v>
       </c>
       <c r="L2">
-        <v>11.24914021275858</v>
+        <v>6.419475856964628</v>
       </c>
       <c r="M2">
-        <v>16.58992597257922</v>
+        <v>10.08434506331528</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.69532780716667</v>
+        <v>12.36901772580732</v>
       </c>
       <c r="C3">
-        <v>7.986076250532534</v>
+        <v>6.896220082567361</v>
       </c>
       <c r="D3">
-        <v>6.667935129414228</v>
+        <v>3.388431307079764</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>47.8562781269129</v>
+        <v>35.16192004313782</v>
       </c>
       <c r="G3">
-        <v>59.41898503090024</v>
+        <v>47.0334673464162</v>
       </c>
       <c r="H3">
-        <v>22.00127544277441</v>
+        <v>15.10348984995003</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11.33491793399058</v>
+        <v>6.951124233990477</v>
       </c>
       <c r="K3">
-        <v>11.77472613583916</v>
+        <v>9.350130860012555</v>
       </c>
       <c r="L3">
-        <v>11.26446880630972</v>
+        <v>6.37531329083168</v>
       </c>
       <c r="M3">
-        <v>16.59581437527903</v>
+        <v>9.857938987557027</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.63734087763142</v>
+        <v>11.92035220943629</v>
       </c>
       <c r="C4">
-        <v>7.963230869285402</v>
+        <v>6.83788442284487</v>
       </c>
       <c r="D4">
-        <v>6.672414625158525</v>
+        <v>3.347079594411899</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>47.86378877902627</v>
+        <v>34.90407835607613</v>
       </c>
       <c r="G4">
-        <v>59.39228198427666</v>
+        <v>46.58132166095768</v>
       </c>
       <c r="H4">
-        <v>22.01940042675438</v>
+        <v>15.07724038341571</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>11.34573099041471</v>
+        <v>6.977295207977649</v>
       </c>
       <c r="K4">
-        <v>11.73601482444318</v>
+        <v>8.932534340350315</v>
       </c>
       <c r="L4">
-        <v>11.2751652028886</v>
+        <v>6.350573856822103</v>
       </c>
       <c r="M4">
-        <v>16.60201966656588</v>
+        <v>9.72140625103736</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.61462336460651</v>
+        <v>11.73426519812893</v>
       </c>
       <c r="C5">
-        <v>7.953738158173077</v>
+        <v>6.813846177436002</v>
       </c>
       <c r="D5">
-        <v>6.674451064395785</v>
+        <v>3.330406584455221</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>47.86878967890445</v>
+        <v>34.803398654468</v>
       </c>
       <c r="G5">
-        <v>59.38409695043197</v>
+        <v>46.40311672516791</v>
       </c>
       <c r="H5">
-        <v>22.0274895201192</v>
+        <v>15.06826863038518</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>11.35029867719129</v>
+        <v>6.988265648206027</v>
       </c>
       <c r="K5">
-        <v>11.72092275956275</v>
+        <v>8.756905871691769</v>
       </c>
       <c r="L5">
-        <v>11.2798475924237</v>
+        <v>6.341087206954728</v>
       </c>
       <c r="M5">
-        <v>16.60520104647602</v>
+        <v>9.666453447289323</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.61090689522435</v>
+        <v>11.70317621222208</v>
       </c>
       <c r="C6">
-        <v>7.952150870651326</v>
+        <v>6.809838555854807</v>
       </c>
       <c r="D6">
-        <v>6.674801975090467</v>
+        <v>3.327649395205876</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>47.86973728173039</v>
+        <v>34.78694475935475</v>
       </c>
       <c r="G6">
-        <v>59.38290082461742</v>
+        <v>46.37389053523523</v>
       </c>
       <c r="H6">
-        <v>22.0288751635485</v>
+        <v>15.06688163493102</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>11.35106689045696</v>
+        <v>6.990105760436199</v>
       </c>
       <c r="K6">
-        <v>11.71845840583917</v>
+        <v>8.72741294957183</v>
       </c>
       <c r="L6">
-        <v>11.28064465381557</v>
+        <v>6.339547792005701</v>
       </c>
       <c r="M6">
-        <v>16.60576877063036</v>
+        <v>9.657371774126126</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.63703077714733</v>
+        <v>11.91785543099687</v>
       </c>
       <c r="C7">
-        <v>7.963103587237502</v>
+        <v>6.837561312849</v>
       </c>
       <c r="D7">
-        <v>6.672441234137455</v>
+        <v>3.346853988319923</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>47.86384836592615</v>
+        <v>34.90270283094795</v>
       </c>
       <c r="G7">
-        <v>59.39216067372358</v>
+        <v>46.57889386718114</v>
       </c>
       <c r="H7">
-        <v>22.01950667284901</v>
+        <v>15.07711246709447</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>11.34579193830558</v>
+        <v>6.9774419208881</v>
       </c>
       <c r="K7">
-        <v>11.73580850283243</v>
+        <v>8.930187862754018</v>
       </c>
       <c r="L7">
-        <v>11.27522704065506</v>
+        <v>6.350443512013092</v>
       </c>
       <c r="M7">
-        <v>16.60205992734927</v>
+        <v>9.720662281691842</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.76026122130696</v>
+        <v>12.83605782002045</v>
       </c>
       <c r="C8">
-        <v>8.009826398524252</v>
+        <v>6.957563934638983</v>
       </c>
       <c r="D8">
-        <v>6.66387466755842</v>
+        <v>3.433109689005275</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>47.85489253491223</v>
+        <v>35.45220160090673</v>
       </c>
       <c r="G8">
-        <v>59.45668323730181</v>
+        <v>47.53666801758757</v>
       </c>
       <c r="H8">
-        <v>21.98433776122735</v>
+        <v>15.13753531250985</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>11.32392957229924</v>
+        <v>6.924239546818538</v>
       </c>
       <c r="K8">
-        <v>11.81832817874112</v>
+        <v>9.77716037170185</v>
       </c>
       <c r="L8">
-        <v>11.25415920555603</v>
+        <v>6.403753878039603</v>
       </c>
       <c r="M8">
-        <v>16.59141970700529</v>
+        <v>10.00580178838208</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.02892729691075</v>
+        <v>14.52003774596087</v>
       </c>
       <c r="C9">
-        <v>8.095613582994433</v>
+        <v>7.184651080152037</v>
       </c>
       <c r="D9">
-        <v>6.653687556432812</v>
+        <v>3.606385816754463</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>47.89843545158493</v>
+        <v>36.6714011862354</v>
       </c>
       <c r="G9">
-        <v>59.66784185975064</v>
+        <v>49.6064211435609</v>
       </c>
       <c r="H9">
-        <v>21.93756065187333</v>
+        <v>15.31420096420037</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>11.28611650823477</v>
+        <v>6.829490984853713</v>
       </c>
       <c r="K9">
-        <v>12.00053400592429</v>
+        <v>11.26796391802227</v>
       </c>
       <c r="L9">
-        <v>11.22301535773597</v>
+        <v>6.52725391630171</v>
       </c>
       <c r="M9">
-        <v>16.59103310396462</v>
+        <v>10.58202799583507</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.24126468528061</v>
+        <v>15.67892943611764</v>
       </c>
       <c r="C10">
-        <v>8.155041589625771</v>
+        <v>7.346718495783394</v>
       </c>
       <c r="D10">
-        <v>6.650196310127078</v>
+        <v>3.735117560080834</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>47.96753498684605</v>
+        <v>37.65552880670356</v>
       </c>
       <c r="G10">
-        <v>59.87408262836163</v>
+        <v>51.24400683005094</v>
       </c>
       <c r="H10">
-        <v>21.91672183380156</v>
+        <v>15.48250189524512</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>11.26139485676141</v>
+        <v>6.765673549818116</v>
       </c>
       <c r="K10">
-        <v>12.14582654407075</v>
+        <v>12.26178137784358</v>
       </c>
       <c r="L10">
-        <v>11.20630327981769</v>
+        <v>6.629668729482958</v>
       </c>
       <c r="M10">
-        <v>16.60313026602616</v>
+        <v>11.01248156243259</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.34076269754962</v>
+        <v>16.18822136341248</v>
       </c>
       <c r="C11">
-        <v>8.181286685420872</v>
+        <v>7.419490964345425</v>
       </c>
       <c r="D11">
-        <v>6.649466543137378</v>
+        <v>3.793781349845598</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>48.00698131750543</v>
+        <v>38.12282668773293</v>
       </c>
       <c r="G11">
-        <v>59.97886330716616</v>
+        <v>52.01442159449362</v>
       </c>
       <c r="H11">
-        <v>21.91017763395053</v>
+        <v>15.56809052129091</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>11.25080752455144</v>
+        <v>6.7378908771477</v>
       </c>
       <c r="K11">
-        <v>12.21417524285782</v>
+        <v>12.69244095553974</v>
       </c>
       <c r="L11">
-        <v>11.20003314586295</v>
+        <v>6.678817463804821</v>
       </c>
       <c r="M11">
-        <v>16.61129591645861</v>
+        <v>11.20922740393963</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.37882740585166</v>
+        <v>16.37846122803635</v>
       </c>
       <c r="C12">
-        <v>8.191110765690585</v>
+        <v>7.446919356373294</v>
       </c>
       <c r="D12">
-        <v>6.649312852264446</v>
+        <v>3.815994971363225</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>48.02306528916461</v>
+        <v>38.30263287912744</v>
       </c>
       <c r="G12">
-        <v>60.02010219300291</v>
+        <v>52.30982779942354</v>
       </c>
       <c r="H12">
-        <v>21.9081212631373</v>
+        <v>15.60185429579447</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>11.24689269912655</v>
+        <v>6.727549286099572</v>
       </c>
       <c r="K12">
-        <v>12.24036102560587</v>
+        <v>12.85249149483958</v>
       </c>
       <c r="L12">
-        <v>11.19784975301824</v>
+        <v>6.697798310505404</v>
       </c>
       <c r="M12">
-        <v>16.61476831072983</v>
+        <v>11.28381855769416</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.37061277465513</v>
+        <v>16.33760658032262</v>
       </c>
       <c r="C13">
-        <v>8.18900007513164</v>
+        <v>7.44101775027225</v>
       </c>
       <c r="D13">
-        <v>6.649340510023623</v>
+        <v>3.811211154595561</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>48.0195504268462</v>
+        <v>38.26378108252048</v>
       </c>
       <c r="G13">
-        <v>60.01115151175417</v>
+        <v>52.2460434992273</v>
       </c>
       <c r="H13">
-        <v>21.90854538749745</v>
+        <v>15.59452158496634</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>11.24773163532371</v>
+        <v>6.729768572149807</v>
       </c>
       <c r="K13">
-        <v>12.23470827810757</v>
+        <v>12.81815568252144</v>
       </c>
       <c r="L13">
-        <v>11.19831150225865</v>
+        <v>6.693693999893291</v>
       </c>
       <c r="M13">
-        <v>16.6140036015343</v>
+        <v>11.26775078244015</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.34388672662405</v>
+        <v>16.20392515647584</v>
       </c>
       <c r="C14">
-        <v>8.182097215689016</v>
+        <v>7.421750046985539</v>
       </c>
       <c r="D14">
-        <v>6.649451445294857</v>
+        <v>3.795608984890901</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>48.00828161358248</v>
+        <v>38.13756213026959</v>
       </c>
       <c r="G14">
-        <v>59.98222487053614</v>
+        <v>52.03865128226142</v>
       </c>
       <c r="H14">
-        <v>21.91000000445584</v>
+        <v>15.57084084604273</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>11.25048356022768</v>
+        <v>6.737036480571394</v>
       </c>
       <c r="K14">
-        <v>12.21632359763591</v>
+        <v>12.70566884364031</v>
       </c>
       <c r="L14">
-        <v>11.19984969306984</v>
+        <v>6.680371620768924</v>
       </c>
       <c r="M14">
-        <v>16.61157398773315</v>
+        <v>11.21536254600904</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.32756572346316</v>
+        <v>16.12169954311137</v>
       </c>
       <c r="C15">
-        <v>8.177854094087559</v>
+        <v>7.409931495974774</v>
       </c>
       <c r="D15">
-        <v>6.649535345957782</v>
+        <v>3.786051619950269</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>48.00152826488764</v>
+        <v>38.06062159046556</v>
       </c>
       <c r="G15">
-        <v>59.96470923161794</v>
+        <v>51.91209543242969</v>
       </c>
       <c r="H15">
-        <v>21.91094591480573</v>
+        <v>15.55651359846568</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>11.2521814728355</v>
+        <v>6.741511599235364</v>
       </c>
       <c r="K15">
-        <v>12.20510137065031</v>
+        <v>12.63637429306311</v>
       </c>
       <c r="L15">
-        <v>11.20081673083213</v>
+        <v>6.672259410184929</v>
       </c>
       <c r="M15">
-        <v>16.61013521557953</v>
+        <v>11.18328340628829</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.23481809417508</v>
+        <v>15.64528159301974</v>
       </c>
       <c r="C16">
-        <v>8.153310456042389</v>
+        <v>7.341944120315007</v>
       </c>
       <c r="D16">
-        <v>6.650261209494386</v>
+        <v>3.731284421712133</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>47.96511784251356</v>
+        <v>37.62538695042502</v>
       </c>
       <c r="G16">
-        <v>59.86745424380067</v>
+        <v>51.19417103325401</v>
       </c>
       <c r="H16">
-        <v>21.91720855538331</v>
+        <v>15.47709481023255</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>11.26209998809457</v>
+        <v>6.767514294638846</v>
       </c>
       <c r="K16">
-        <v>12.14140341378894</v>
+        <v>12.23320973938316</v>
       </c>
       <c r="L16">
-        <v>11.20673980522039</v>
+        <v>6.626508351106156</v>
       </c>
       <c r="M16">
-        <v>16.60264997917621</v>
+        <v>10.9996384118739</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.17864273491075</v>
+        <v>15.34839242421186</v>
       </c>
       <c r="C17">
-        <v>8.138050994948868</v>
+        <v>7.299997227756064</v>
       </c>
       <c r="D17">
-        <v>6.650925818169365</v>
+        <v>3.697701104775349</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>47.94482966138249</v>
+        <v>37.36342831809258</v>
       </c>
       <c r="G17">
-        <v>59.81058834436656</v>
+        <v>50.76027059605028</v>
       </c>
       <c r="H17">
-        <v>21.92180212277261</v>
+        <v>15.43072489190337</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>11.26835312836358</v>
+        <v>6.783785495591991</v>
       </c>
       <c r="K17">
-        <v>12.10288971991332</v>
+        <v>11.98042674274475</v>
       </c>
       <c r="L17">
-        <v>11.21071422308387</v>
+        <v>6.59909797260601</v>
       </c>
       <c r="M17">
-        <v>16.59873817463219</v>
+        <v>10.8871818524677</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.14660743946686</v>
+        <v>15.17594653647131</v>
       </c>
       <c r="C18">
-        <v>8.129199945581785</v>
+        <v>7.275780220892695</v>
       </c>
       <c r="D18">
-        <v>6.651388930954188</v>
+        <v>3.678395427838637</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>47.93391501526251</v>
+        <v>37.21460077263143</v>
       </c>
       <c r="G18">
-        <v>59.77891329201888</v>
+        <v>50.51309899762894</v>
       </c>
       <c r="H18">
-        <v>21.92472055051659</v>
+        <v>15.40490050643398</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>11.27201178712598</v>
+        <v>6.793261763911139</v>
       </c>
       <c r="K18">
-        <v>12.0809511231375</v>
+        <v>11.83301192418069</v>
       </c>
       <c r="L18">
-        <v>11.2131256412965</v>
+        <v>6.58357310626919</v>
       </c>
       <c r="M18">
-        <v>16.59673899532392</v>
+        <v>10.8225897863726</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.13580904483048</v>
+        <v>15.11727198884804</v>
       </c>
       <c r="C19">
-        <v>8.126190414480558</v>
+        <v>7.267565037780141</v>
       </c>
       <c r="D19">
-        <v>6.651559641920482</v>
+        <v>3.67186118128116</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>47.93034926319576</v>
+        <v>37.16452619852662</v>
       </c>
       <c r="G19">
-        <v>59.76836647369801</v>
+        <v>50.42982257983648</v>
       </c>
       <c r="H19">
-        <v>21.92575614842212</v>
+        <v>15.39630052292339</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11.27326120842351</v>
+        <v>6.796490460234924</v>
       </c>
       <c r="K19">
-        <v>12.07356037150634</v>
+        <v>11.78275125690134</v>
       </c>
       <c r="L19">
-        <v>11.21396366826406</v>
+        <v>6.578357986895845</v>
       </c>
       <c r="M19">
-        <v>16.59610525732692</v>
+        <v>10.80073697367103</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.18459442731393</v>
+        <v>15.38017137284041</v>
       </c>
       <c r="C20">
-        <v>8.139683077827833</v>
+        <v>7.304471835117749</v>
       </c>
       <c r="D20">
-        <v>6.650846707608893</v>
+        <v>3.701275133692535</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>47.94691131534415</v>
+        <v>37.39112319581503</v>
       </c>
       <c r="G20">
-        <v>59.8165350410389</v>
+        <v>50.80621201865222</v>
       </c>
       <c r="H20">
-        <v>21.92128453272484</v>
+        <v>15.43557305918481</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>11.2676810548242</v>
+        <v>6.782041240367509</v>
       </c>
       <c r="K20">
-        <v>12.10696762327972</v>
+        <v>12.00754470607658</v>
       </c>
       <c r="L20">
-        <v>11.2102781614543</v>
+        <v>6.601990918130928</v>
       </c>
       <c r="M20">
-        <v>16.59912865578531</v>
+        <v>10.8991440855834</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.35172656028801</v>
+        <v>16.24326192795945</v>
       </c>
       <c r="C21">
-        <v>8.184127863938365</v>
+        <v>7.42741286574132</v>
       </c>
       <c r="D21">
-        <v>6.649415538479905</v>
+        <v>3.800191868432938</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>48.01156047107625</v>
+        <v>38.17455806621822</v>
       </c>
       <c r="G21">
-        <v>59.99067910034349</v>
+        <v>52.09946778976111</v>
       </c>
       <c r="H21">
-        <v>21.909561304636</v>
+        <v>15.57775928080005</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>11.2496726948311</v>
+        <v>6.734896861440041</v>
       </c>
       <c r="K21">
-        <v>12.22171555028414</v>
+        <v>12.73879078151589</v>
       </c>
       <c r="L21">
-        <v>11.19939271124488</v>
+        <v>6.684274693462437</v>
       </c>
       <c r="M21">
-        <v>16.61227732669927</v>
+        <v>11.2307481955457</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.4631979952921</v>
+        <v>16.80438885414429</v>
       </c>
       <c r="C22">
-        <v>8.212508064172559</v>
+        <v>7.507015255737241</v>
       </c>
       <c r="D22">
-        <v>6.649194732514887</v>
+        <v>3.864827164533581</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>48.06049188377586</v>
+        <v>38.70321173186843</v>
       </c>
       <c r="G22">
-        <v>60.1135809919849</v>
+        <v>52.96607031221997</v>
       </c>
       <c r="H22">
-        <v>21.90435768680164</v>
+        <v>15.67860053729245</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>11.23845307709899</v>
+        <v>6.705129134362804</v>
       </c>
       <c r="K22">
-        <v>12.29846978455265</v>
+        <v>13.19906310524052</v>
       </c>
       <c r="L22">
-        <v>11.19339126117848</v>
+        <v>6.740205143624134</v>
       </c>
       <c r="M22">
-        <v>16.62308569495506</v>
+        <v>11.44796532718864</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.40350884259689</v>
+        <v>16.50056979249229</v>
       </c>
       <c r="C23">
-        <v>8.197422348466802</v>
+        <v>7.464595163731541</v>
       </c>
       <c r="D23">
-        <v>6.649247467452936</v>
+        <v>3.830336062965416</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>48.033767199415</v>
+        <v>38.41952596250479</v>
       </c>
       <c r="G23">
-        <v>60.04715986560215</v>
+        <v>52.50158659318408</v>
       </c>
       <c r="H23">
-        <v>21.90691017469458</v>
+        <v>15.6240368873875</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>11.24439099792965</v>
+        <v>6.720921319327541</v>
       </c>
       <c r="K23">
-        <v>12.25735049662852</v>
+        <v>12.95500296427046</v>
       </c>
       <c r="L23">
-        <v>11.19649273347317</v>
+        <v>6.710156524858187</v>
       </c>
       <c r="M23">
-        <v>16.61711532442342</v>
+        <v>11.33200080098532</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.18190285289037</v>
+        <v>15.36580958961088</v>
       </c>
       <c r="C24">
-        <v>8.138945456632426</v>
+        <v>7.302449180866957</v>
       </c>
       <c r="D24">
-        <v>6.650882221079536</v>
+        <v>3.699659308325521</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>47.94596786505968</v>
+        <v>37.37859681207662</v>
       </c>
       <c r="G24">
-        <v>59.81384336748629</v>
+        <v>50.78543478890452</v>
       </c>
       <c r="H24">
-        <v>21.92151767063532</v>
+        <v>15.43337860824995</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>11.26798470099293</v>
+        <v>6.78282943893692</v>
       </c>
       <c r="K24">
-        <v>12.10512336790934</v>
+        <v>11.99529117766879</v>
       </c>
       <c r="L24">
-        <v>11.21047491092417</v>
+        <v>6.600682289542783</v>
       </c>
       <c r="M24">
-        <v>16.59895134104609</v>
+        <v>10.89373576733321</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.95350645909874</v>
+        <v>14.0778314310051</v>
       </c>
       <c r="C25">
-        <v>8.073035039865232</v>
+        <v>7.124078586548737</v>
       </c>
       <c r="D25">
-        <v>6.655739341957233</v>
+        <v>3.559184317128378</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>47.88012570473358</v>
+        <v>36.32618817222914</v>
       </c>
       <c r="G25">
-        <v>59.60170123836158</v>
+        <v>49.02596128426585</v>
       </c>
       <c r="H25">
-        <v>21.94783905982118</v>
+        <v>15.25986742795071</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>11.29580688850886</v>
+        <v>6.854102302126644</v>
       </c>
       <c r="K25">
-        <v>11.94916020976845</v>
+        <v>10.88266250871905</v>
       </c>
       <c r="L25">
-        <v>11.2303548763254</v>
+        <v>6.491800258617952</v>
       </c>
       <c r="M25">
-        <v>16.58895511585525</v>
+        <v>10.42467024936871</v>
       </c>
       <c r="N25">
         <v>0</v>
